--- a/excel_files/files.xlsx
+++ b/excel_files/files.xlsx
@@ -14,36 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>agrelon.rdf</t>
-  </si>
-  <si>
-    <t>bfo-1.1.owl</t>
-  </si>
-  <si>
-    <t>bibtex.owl</t>
-  </si>
-  <si>
-    <t>bao_vocabulary_result.owl</t>
-  </si>
-  <si>
-    <t>AncientGreekWisdomOnto.owl</t>
-  </si>
-  <si>
-    <t>animals.owl</t>
-  </si>
-  <si>
-    <t>airtravelbookingontology.owl</t>
-  </si>
-  <si>
-    <t>bibo.owl</t>
-  </si>
-  <si>
-    <t>adolena_OBDA.owl</t>
-  </si>
-  <si>
-    <t>Book.owl</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t>assumption</t>
+  </si>
+  <si>
+    <t>areatype</t>
+  </si>
+  <si>
+    <t>bctd</t>
+  </si>
+  <si>
+    <t>ANZRC_Codes</t>
+  </si>
+  <si>
+    <t>active_acoustic_metadata</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>animal_acoustic_telemetry</t>
+  </si>
+  <si>
+    <t>authority</t>
+  </si>
+  <si>
+    <t>atmospheric</t>
+  </si>
+  <si>
+    <t>architectureConcept</t>
+  </si>
+  <si>
+    <t>AtmosphericHydrologicCompound</t>
+  </si>
+  <si>
+    <t>AquaBioCore</t>
+  </si>
+  <si>
+    <t>AtmosphericHydrologicCore</t>
+  </si>
+  <si>
+    <t>AtmosphericHydrologicSynthesis</t>
+  </si>
+  <si>
+    <t>AquaBiologicalCompound</t>
+  </si>
+  <si>
+    <t>bfo-1.1-el.owl</t>
+  </si>
+  <si>
+    <t>bfo-continuants.owl</t>
+  </si>
+  <si>
+    <t>BFOGFOMappings.owl</t>
+  </si>
+  <si>
+    <t>BFOGFO-basicMappings.owl</t>
   </si>
 </sst>
 </file>
@@ -375,7 +402,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B11"/>
+  <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -386,7 +413,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -394,7 +421,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -402,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -410,7 +437,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -418,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -426,7 +453,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -434,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -442,7 +469,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -450,7 +477,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -458,7 +485,79 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
